--- a/Alunos2024.xlsx
+++ b/Alunos2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camar\Dropbox\Projetos\Reprodutibilidade cientifica no R-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camar\Dropbox\Projetos\Reprodutibilidade cientifica no R\reprodu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271398B-D16B-4402-92F1-F2E229CBA408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE147C3-5670-4042-9B0E-2EE66F8ACCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>AMANDA LETÍCIA BAUER</t>
   </si>
@@ -78,6 +78,45 @@
   </si>
   <si>
     <t>SHERON MAGALHÃES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>amandaleticiabauer@hotmail.com</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/amandabaauer</t>
+  </si>
+  <si>
+    <t>giliard.9584@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/gili84</t>
+  </si>
+  <si>
+    <t>sher.off21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sh3roff</t>
+  </si>
+  <si>
+    <t>giuliaterlecki@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/GiuliaTerlecki</t>
+  </si>
+  <si>
+    <t>https://github.com/mcabanillast</t>
+  </si>
+  <si>
+    <t>janainafdafonseca@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/janainadafonseca</t>
   </si>
 </sst>
 </file>
@@ -404,175 +443,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.59765625" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>16</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
         <v>1009</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>167118</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1064</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>167238</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>1064</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>171608</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
         <v>902</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>166103</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>1064</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>167239</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>902</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167250</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
         <v>1064</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>171609</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Alunos2024.xlsx
+++ b/Alunos2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camar\Dropbox\Projetos\Reprodutibilidade cientifica no R\reprodu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE147C3-5670-4042-9B0E-2EE66F8ACCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971EFE7F-AAD0-4854-BB21-AD21700539E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -446,16 +446,16 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.59765625" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">

--- a/Alunos2024.xlsx
+++ b/Alunos2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camar\Dropbox\Projetos\Reprodutibilidade cientifica no R\reprodu2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971EFE7F-AAD0-4854-BB21-AD21700539E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FD11D-8DFC-454F-AD8D-2303496B46FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>AMANDA LETÍCIA BAUER</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>https://github.com/janainadafonseca</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Tarefa 1</t>
+  </si>
+  <si>
+    <t>Não achei</t>
+  </si>
+  <si>
+    <t>Falta fórmula</t>
+  </si>
+  <si>
+    <t>https://efsnunes.github.io/index.html</t>
   </si>
 </sst>
 </file>
@@ -443,22 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,22 +485,25 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>16</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,43 +513,49 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
         <v>1009</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>167118</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
         <v>1064</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>167238</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -540,23 +565,26 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
         <v>1064</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>171608</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -566,23 +594,26 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
         <v>902</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>166103</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -592,43 +623,49 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
         <v>1064</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>167239</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
         <v>902</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>167250</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -638,19 +675,22 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>1064</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>171609</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
